--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D458AEF9-7BEA-4CFE-B65B-4D7237A94F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A23108-47F9-48EC-856F-5D424F19EC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37020" yWindow="2895" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -112,24 +112,15 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>item.TbItem</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>item.xlsx</t>
-  </si>
-  <si>
-    <t>block.TbBlock</t>
+    <t>MapSystem.DTBlockConfig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HexBlockTables.xlsx</t>
+    <t>BlockConfig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Block</t>
+    <t>BlockConfigTables.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -474,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -590,31 +581,17 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\OasisProject3D\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepo\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A23108-47F9-48EC-856F-5D424F19EC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB96F89-4A66-4DBF-BA80-3DDF6895ABA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>BlockConfigTables.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapSystem.DTBlockElementConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockElementConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockElementConfigTables.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -465,23 +477,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="2" max="2" width="29.08203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -554,7 +566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -580,7 +592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
@@ -592,6 +604,20 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepo\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB96F89-4A66-4DBF-BA80-3DDF6895ABA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53723CFA-6F7C-424A-8C26-EB199DD40F2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>BlockElementConfigTables.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingSystem.DTBuildingConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingConfigTables.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -620,6 +632,20 @@
         <v>35</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepo\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53723CFA-6F7C-424A-8C26-EB199DD40F2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB45E89-46C1-426A-89E7-B8B05B94A19F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,20 +492,20 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.08203125" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -578,7 +578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -604,7 +604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
@@ -618,7 +618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
@@ -632,7 +632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
